--- a/biology/Botanique/Ranunculus_ophioglossifolius/Ranunculus_ophioglossifolius.xlsx
+++ b/biology/Botanique/Ranunculus_ophioglossifolius/Ranunculus_ophioglossifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Renoncule à feuilles d’ophioglosse (Ranunculus ophioglossifolius), aussi appelé bouton d'or à feuilles d’ophioglosse, est une espèce de petite plante annuelle aux fleurs jaunes semblables à des boutons d'or, avec des pétales assez courts. 
-Ses feuilles, ovales en forme de cœur[1], sont reconnaissables, mais on peut la confondre avec la Renoncule scélérate ou la Renoncule flammette qui poussent dans les mêmes milieux[2].
-Elle pousse dans des zones humides : prairies humides, mares, fossés, en milieu ouvert ou en sous bois. La principale cause de régression de cette espèce très rare est la destruction de son milieu[2]. 
+Ses feuilles, ovales en forme de cœur, sont reconnaissables, mais on peut la confondre avec la Renoncule scélérate ou la Renoncule flammette qui poussent dans les mêmes milieux.
+Elle pousse dans des zones humides : prairies humides, mares, fossés, en milieu ouvert ou en sous bois. La principale cause de régression de cette espèce très rare est la destruction de son milieu. 
 Elle fait partie de la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain. En France, on la trouve notamment :
 Lac de Grand-Lieu
 Réserve naturelle nationale du Marais d'Yves
